--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cadm1-Cadm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H2">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="N2">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="O2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="P2">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="Q2">
-        <v>1.166766297939145</v>
+        <v>1.549650692600111</v>
       </c>
       <c r="R2">
-        <v>1.166766297939145</v>
+        <v>13.946856233401</v>
       </c>
       <c r="S2">
-        <v>0.02498207712888859</v>
+        <v>0.008645700360726458</v>
       </c>
       <c r="T2">
-        <v>0.02498207712888859</v>
+        <v>0.008645700360726458</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H3">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J3">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.03129904771186</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="N3">
-        <v>4.03129904771186</v>
+        <v>12.301901</v>
       </c>
       <c r="O3">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="P3">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="Q3">
-        <v>4.354486555148538</v>
+        <v>5.10467245307211</v>
       </c>
       <c r="R3">
-        <v>4.354486555148538</v>
+        <v>45.942052077649</v>
       </c>
       <c r="S3">
-        <v>0.09323556839923655</v>
+        <v>0.02847962362076951</v>
       </c>
       <c r="T3">
-        <v>0.09323556839923655</v>
+        <v>0.02847962362076951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -640,123 +643,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.08016956906735</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H4">
-        <v>1.08016956906735</v>
+        <v>3.734549</v>
       </c>
       <c r="I4">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J4">
-        <v>0.1580571957516917</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.72257373055118</v>
+        <v>6.14883</v>
       </c>
       <c r="N4">
-        <v>1.72257373055118</v>
+        <v>18.44649</v>
       </c>
       <c r="O4">
-        <v>0.252057807517695</v>
+        <v>0.4592780274465486</v>
       </c>
       <c r="P4">
-        <v>0.252057807517695</v>
+        <v>0.4592780274465486</v>
       </c>
       <c r="Q4">
-        <v>1.860671724216206</v>
+        <v>7.65436897589</v>
       </c>
       <c r="R4">
-        <v>1.860671724216206</v>
+        <v>68.88932078301001</v>
       </c>
       <c r="S4">
-        <v>0.03983955022356654</v>
+        <v>0.04270470818488043</v>
       </c>
       <c r="T4">
-        <v>0.03983955022356654</v>
+        <v>0.04270470818488043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.03129904771186</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="H5">
-        <v>4.03129904771186</v>
+        <v>3.734549</v>
       </c>
       <c r="I5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="J5">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.08016956906735</v>
+        <v>1.893721</v>
       </c>
       <c r="N5">
-        <v>1.08016956906735</v>
+        <v>5.681163</v>
       </c>
       <c r="O5">
-        <v>0.1580571957516917</v>
+        <v>0.1414487708090979</v>
       </c>
       <c r="P5">
-        <v>0.1580571957516917</v>
+        <v>0.1414487708090979</v>
       </c>
       <c r="Q5">
-        <v>4.354486555148538</v>
+        <v>2.357397955609667</v>
       </c>
       <c r="R5">
-        <v>4.354486555148538</v>
+        <v>21.216581600487</v>
       </c>
       <c r="S5">
-        <v>0.09323556839923655</v>
+        <v>0.01315222614523087</v>
       </c>
       <c r="T5">
-        <v>0.09323556839923655</v>
+        <v>0.01315222614523087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -764,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.03129904771186</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H6">
-        <v>4.03129904771186</v>
+        <v>12.301901</v>
       </c>
       <c r="I6">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J6">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.03129904771186</v>
+        <v>1.244849666666667</v>
       </c>
       <c r="N6">
-        <v>4.03129904771186</v>
+        <v>3.734549</v>
       </c>
       <c r="O6">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="P6">
-        <v>0.5898849967306132</v>
+        <v>0.09298225831160727</v>
       </c>
       <c r="Q6">
-        <v>16.25137201208255</v>
+        <v>5.10467245307211</v>
       </c>
       <c r="R6">
-        <v>16.25137201208255</v>
+        <v>45.942052077649</v>
       </c>
       <c r="S6">
-        <v>0.3479643093678756</v>
+        <v>0.02847962362076951</v>
       </c>
       <c r="T6">
-        <v>0.3479643093678756</v>
+        <v>0.02847962362076951</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -826,185 +829,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.03129904771186</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H7">
-        <v>4.03129904771186</v>
+        <v>12.301901</v>
       </c>
       <c r="I7">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J7">
-        <v>0.5898849967306132</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.72257373055118</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="N7">
-        <v>1.72257373055118</v>
+        <v>12.301901</v>
       </c>
       <c r="O7">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="P7">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="Q7">
-        <v>6.944209839584437</v>
+        <v>16.81519646820011</v>
       </c>
       <c r="R7">
-        <v>6.944209839584437</v>
+        <v>151.336768213801</v>
       </c>
       <c r="S7">
-        <v>0.148685118963501</v>
+        <v>0.09381414202892184</v>
       </c>
       <c r="T7">
-        <v>0.148685118963501</v>
+        <v>0.09381414202892184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.72257373055118</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H8">
-        <v>1.72257373055118</v>
+        <v>12.301901</v>
       </c>
       <c r="I8">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J8">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.08016956906735</v>
+        <v>6.14883</v>
       </c>
       <c r="N8">
-        <v>1.08016956906735</v>
+        <v>18.44649</v>
       </c>
       <c r="O8">
-        <v>0.1580571957516917</v>
+        <v>0.4592780274465486</v>
       </c>
       <c r="P8">
-        <v>0.1580571957516917</v>
+        <v>0.4592780274465486</v>
       </c>
       <c r="Q8">
-        <v>1.860671724216206</v>
+        <v>25.21409930861</v>
       </c>
       <c r="R8">
-        <v>1.860671724216206</v>
+        <v>226.92689377749</v>
       </c>
       <c r="S8">
-        <v>0.03983955022356654</v>
+        <v>0.1406727003245341</v>
       </c>
       <c r="T8">
-        <v>0.03983955022356654</v>
+        <v>0.1406727003245341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.72257373055118</v>
+        <v>4.100633666666666</v>
       </c>
       <c r="H9">
-        <v>1.72257373055118</v>
+        <v>12.301901</v>
       </c>
       <c r="I9">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="J9">
-        <v>0.252057807517695</v>
+        <v>0.3062909434327464</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.03129904771186</v>
+        <v>1.893721</v>
       </c>
       <c r="N9">
-        <v>4.03129904771186</v>
+        <v>5.681163</v>
       </c>
       <c r="O9">
-        <v>0.5898849967306132</v>
+        <v>0.1414487708090979</v>
       </c>
       <c r="P9">
-        <v>0.5898849967306132</v>
+        <v>0.1414487708090979</v>
       </c>
       <c r="Q9">
-        <v>6.944209839584437</v>
+        <v>7.765456087873665</v>
       </c>
       <c r="R9">
-        <v>6.944209839584437</v>
+        <v>69.88910479086299</v>
       </c>
       <c r="S9">
-        <v>0.148685118963501</v>
+        <v>0.0433244774585209</v>
       </c>
       <c r="T9">
-        <v>0.148685118963501</v>
+        <v>0.0433244774585209</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1012,61 +1015,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>6.14883</v>
+      </c>
+      <c r="H10">
+        <v>18.44649</v>
+      </c>
+      <c r="I10">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J10">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.244849666666667</v>
+      </c>
+      <c r="N10">
+        <v>3.734549</v>
+      </c>
+      <c r="O10">
+        <v>0.09298225831160727</v>
+      </c>
+      <c r="P10">
+        <v>0.09298225831160727</v>
+      </c>
+      <c r="Q10">
+        <v>7.65436897589</v>
+      </c>
+      <c r="R10">
+        <v>68.88932078301001</v>
+      </c>
+      <c r="S10">
+        <v>0.04270470818488043</v>
+      </c>
+      <c r="T10">
+        <v>0.04270470818488043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>6.14883</v>
+      </c>
+      <c r="H11">
+        <v>18.44649</v>
+      </c>
+      <c r="I11">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J11">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="N11">
+        <v>12.301901</v>
+      </c>
+      <c r="O11">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="P11">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="Q11">
+        <v>25.21409930861</v>
+      </c>
+      <c r="R11">
+        <v>226.92689377749</v>
+      </c>
+      <c r="S11">
+        <v>0.1406727003245341</v>
+      </c>
+      <c r="T11">
+        <v>0.1406727003245341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>6.14883</v>
+      </c>
+      <c r="H12">
+        <v>18.44649</v>
+      </c>
+      <c r="I12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>6.14883</v>
+      </c>
+      <c r="N12">
+        <v>18.44649</v>
+      </c>
+      <c r="O12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="P12">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="Q12">
+        <v>37.8081103689</v>
+      </c>
+      <c r="R12">
+        <v>340.2729933201</v>
+      </c>
+      <c r="S12">
+        <v>0.2109363064951926</v>
+      </c>
+      <c r="T12">
+        <v>0.2109363064951926</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>6.14883</v>
+      </c>
+      <c r="H13">
+        <v>18.44649</v>
+      </c>
+      <c r="I13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="J13">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.893721</v>
+      </c>
+      <c r="N13">
+        <v>5.681163</v>
+      </c>
+      <c r="O13">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="P13">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="Q13">
+        <v>11.64416849643</v>
+      </c>
+      <c r="R13">
+        <v>104.79751646787</v>
+      </c>
+      <c r="S13">
+        <v>0.06496431244194141</v>
+      </c>
+      <c r="T13">
+        <v>0.06496431244194141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.893721</v>
+      </c>
+      <c r="H14">
+        <v>5.681163</v>
+      </c>
+      <c r="I14">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J14">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.244849666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.734549</v>
+      </c>
+      <c r="O14">
+        <v>0.09298225831160727</v>
+      </c>
+      <c r="P14">
+        <v>0.09298225831160727</v>
+      </c>
+      <c r="Q14">
+        <v>2.357397955609667</v>
+      </c>
+      <c r="R14">
+        <v>21.216581600487</v>
+      </c>
+      <c r="S14">
+        <v>0.01315222614523087</v>
+      </c>
+      <c r="T14">
+        <v>0.01315222614523087</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.893721</v>
+      </c>
+      <c r="H15">
+        <v>5.681163</v>
+      </c>
+      <c r="I15">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J15">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.100633666666666</v>
+      </c>
+      <c r="N15">
+        <v>12.301901</v>
+      </c>
+      <c r="O15">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="P15">
+        <v>0.3062909434327464</v>
+      </c>
+      <c r="Q15">
+        <v>7.765456087873665</v>
+      </c>
+      <c r="R15">
+        <v>69.88910479086299</v>
+      </c>
+      <c r="S15">
+        <v>0.0433244774585209</v>
+      </c>
+      <c r="T15">
+        <v>0.0433244774585209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="H10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="I10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="J10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="N10">
-        <v>1.72257373055118</v>
-      </c>
-      <c r="O10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="P10">
-        <v>0.252057807517695</v>
-      </c>
-      <c r="Q10">
-        <v>2.967260257185009</v>
-      </c>
-      <c r="R10">
-        <v>2.967260257185009</v>
-      </c>
-      <c r="S10">
-        <v>0.06353313833062736</v>
-      </c>
-      <c r="T10">
-        <v>0.06353313833062736</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.893721</v>
+      </c>
+      <c r="H16">
+        <v>5.681163</v>
+      </c>
+      <c r="I16">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J16">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>6.14883</v>
+      </c>
+      <c r="N16">
+        <v>18.44649</v>
+      </c>
+      <c r="O16">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="P16">
+        <v>0.4592780274465486</v>
+      </c>
+      <c r="Q16">
+        <v>11.64416849643</v>
+      </c>
+      <c r="R16">
+        <v>104.79751646787</v>
+      </c>
+      <c r="S16">
+        <v>0.06496431244194141</v>
+      </c>
+      <c r="T16">
+        <v>0.06496431244194141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.893721</v>
+      </c>
+      <c r="H17">
+        <v>5.681163</v>
+      </c>
+      <c r="I17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="J17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.893721</v>
+      </c>
+      <c r="N17">
+        <v>5.681163</v>
+      </c>
+      <c r="O17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="P17">
+        <v>0.1414487708090979</v>
+      </c>
+      <c r="Q17">
+        <v>3.586179225841</v>
+      </c>
+      <c r="R17">
+        <v>32.275613032569</v>
+      </c>
+      <c r="S17">
+        <v>0.0200077547634047</v>
+      </c>
+      <c r="T17">
+        <v>0.0200077547634047</v>
       </c>
     </row>
   </sheetData>
